--- a/work/template.xlsx
+++ b/work/template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\ttv\media\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\ttv\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2C9091-A5F0-465D-BA83-7C99EECB42EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2AF36F-6950-4D2D-A907-27C41D3BA5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8310" yWindow="1610" windowWidth="30070" windowHeight="17930" xr2:uid="{F4413328-79CA-42FB-B692-AB86340EDDC3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
@@ -78,6 +78,18 @@
   </si>
   <si>
     <t>句子</t>
+  </si>
+  <si>
+    <t>boy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>man</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -484,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F4B174E-7805-4BF1-B35E-DEF4C551348A}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD11"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -495,11 +507,12 @@
     <col min="1" max="1" width="7.08203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.08203125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="40" style="2" customWidth="1"/>
-    <col min="6" max="6" width="40" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="1" customWidth="1"/>
+    <col min="5" max="6" width="40" style="2" customWidth="1"/>
+    <col min="7" max="7" width="40" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5">
+    <row r="1" spans="1:7" ht="16.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -510,16 +523,19 @@
         <v>8</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5">
+    <row r="2" spans="1:7" ht="16.5">
       <c r="A2" s="4">
         <v>11</v>
       </c>
@@ -529,15 +545,18 @@
       <c r="C2" s="4">
         <v>11</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:6" ht="16.5">
+    <row r="3" spans="1:7" ht="16.5">
       <c r="A3" s="4">
         <v>12</v>
       </c>
@@ -547,15 +566,18 @@
       <c r="C3" s="4">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:6" ht="16.5">
+    <row r="4" spans="1:7" ht="16.5">
       <c r="A4" s="4">
         <v>13</v>
       </c>
@@ -565,13 +587,16 @@
       <c r="C4" s="4">
         <v>11</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
